--- a/db_Tasks.xlsx
+++ b/db_Tasks.xlsx
@@ -1,39 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Task Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>CMD</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -56,92 +79,30 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -429,57 +390,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="11.43357142857143" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
-    <col width="16.43357142857143" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
-    <col width="16.71928571428571" bestFit="1" customWidth="1" style="3" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="6" max="6"/>
+    <col min="1" max="1" style="3" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Message</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>CMD</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
